--- a/Admin/201501XLP_Manual_DPC_tracker.xlsx
+++ b/Admin/201501XLP_Manual_DPC_tracker.xlsx
@@ -2649,16 +2649,22 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2686,12 +2692,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3001,10 +3001,10 @@
   <dimension ref="A1:EJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3083,10 +3083,10 @@
       <c r="B3" s="62">
         <v>0.3298611111111111</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="74"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
@@ -3105,7 +3105,7 @@
       <c r="J3" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="72" t="s">
         <v>195</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -3129,7 +3129,7 @@
       <c r="H4" s="38"/>
       <c r="I4" s="39"/>
       <c r="J4" s="40"/>
-      <c r="K4" s="71"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1">
       <c r="A5" s="15" t="s">
@@ -3138,10 +3138,10 @@
       <c r="B5" s="59">
         <v>0.34166666666666662</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="65"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="11" t="s">
         <v>111</v>
       </c>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="I5" s="39"/>
       <c r="J5" s="40"/>
-      <c r="K5" s="71"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" ht="52" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -3163,10 +3163,10 @@
       <c r="B6" s="59">
         <v>0.34861111111111115</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="65"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="11" t="s">
         <v>111</v>
       </c>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="40"/>
-      <c r="K6" s="72"/>
+      <c r="K6" s="74"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="99" customHeight="1">
       <c r="A7" s="15" t="s">
@@ -3190,10 +3190,10 @@
       <c r="B7" s="59">
         <v>0.35902777777777778</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="69" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -3219,10 +3219,10 @@
       <c r="B8" s="59">
         <v>0.37222222222222223</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="D8" s="65"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="11" t="s">
         <v>111</v>
       </c>
@@ -3248,10 +3248,10 @@
       <c r="B9" s="59">
         <v>0.37847222222222227</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="65"/>
+      <c r="D9" s="67"/>
       <c r="E9" s="11" t="s">
         <v>111</v>
       </c>
@@ -3277,10 +3277,10 @@
       <c r="B10" s="59">
         <v>0.39027777777777778</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="65"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="11" t="s">
         <v>111</v>
       </c>
@@ -3307,10 +3307,10 @@
       <c r="B11" s="59">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="65"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="11" t="s">
         <v>111</v>
       </c>
@@ -3334,10 +3334,10 @@
       <c r="B12" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="67"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="11" t="s">
         <v>102</v>
       </c>
@@ -3365,10 +3365,10 @@
       <c r="B13" s="59">
         <v>0.50138888888888888</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="11" t="s">
         <v>111</v>
       </c>
@@ -3398,10 +3398,10 @@
       <c r="B14" s="59">
         <v>0.59166666666666667</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="67"/>
+      <c r="D14" s="65"/>
       <c r="E14" s="11" t="s">
         <v>111</v>
       </c>
@@ -3429,10 +3429,10 @@
       <c r="B15" s="59">
         <v>0.61805555555555558</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="65"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="11" t="s">
         <v>111</v>
       </c>
@@ -3451,11 +3451,13 @@
       <c r="A16" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="64" t="s">
+      <c r="B16" s="59">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C16" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="65"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="11" t="s">
         <v>111</v>
       </c>
@@ -3478,11 +3480,13 @@
       <c r="A17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="66" t="s">
+      <c r="B17" s="59">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C17" s="64" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="67"/>
+      <c r="D17" s="65"/>
       <c r="E17" s="11" t="s">
         <v>111</v>
       </c>
@@ -3509,11 +3513,13 @@
       <c r="A18" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="64" t="s">
+      <c r="B18" s="59">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="C18" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="65"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="11" t="s">
         <v>111</v>
       </c>
@@ -3538,11 +3544,13 @@
       <c r="A19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="66" t="s">
+      <c r="B19" s="59">
+        <v>0.85763888888888884</v>
+      </c>
+      <c r="C19" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="65"/>
       <c r="E19" s="11" t="s">
         <v>111</v>
       </c>
@@ -3567,11 +3575,13 @@
       <c r="A20" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="66" t="s">
+      <c r="B20" s="60">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C20" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="D20" s="67"/>
+      <c r="D20" s="65"/>
       <c r="E20" s="11" t="s">
         <v>111</v>
       </c>
@@ -3599,8 +3609,8 @@
         <v>14</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
       <c r="E21" s="11"/>
       <c r="F21" s="17"/>
       <c r="G21" s="29"/>
@@ -3614,10 +3624,10 @@
         <v>40</v>
       </c>
       <c r="B22" s="59"/>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="76"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="11" t="s">
         <v>22</v>
       </c>
@@ -3643,10 +3653,10 @@
         <v>42</v>
       </c>
       <c r="B23" s="59"/>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="67"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="11" t="s">
         <v>111</v>
       </c>
@@ -3672,10 +3682,10 @@
         <v>156</v>
       </c>
       <c r="B24" s="59"/>
-      <c r="C24" s="64" t="s">
+      <c r="C24" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="65"/>
+      <c r="D24" s="67"/>
       <c r="E24" s="11" t="s">
         <v>111</v>
       </c>
@@ -3695,10 +3705,10 @@
         <v>104</v>
       </c>
       <c r="B25" s="59"/>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="65"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="11" t="s">
         <v>111</v>
       </c>
@@ -3722,10 +3732,10 @@
         <v>158</v>
       </c>
       <c r="B26" s="59"/>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="D26" s="65"/>
+      <c r="D26" s="67"/>
       <c r="E26" s="11" t="s">
         <v>111</v>
       </c>
@@ -3753,10 +3763,10 @@
         <v>159</v>
       </c>
       <c r="B27" s="58"/>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="65"/>
+      <c r="D27" s="67"/>
       <c r="E27" s="11" t="s">
         <v>111</v>
       </c>
@@ -3778,10 +3788,10 @@
         <v>177</v>
       </c>
       <c r="B28" s="58"/>
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="D28" s="65"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="11" t="s">
         <v>111</v>
       </c>
@@ -3801,10 +3811,10 @@
         <v>178</v>
       </c>
       <c r="B29" s="58"/>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="67"/>
+      <c r="D29" s="65"/>
       <c r="E29" s="11" t="s">
         <v>111</v>
       </c>
@@ -3830,10 +3840,10 @@
         <v>164</v>
       </c>
       <c r="B30" s="58"/>
-      <c r="C30" s="64" t="s">
+      <c r="C30" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="67"/>
       <c r="E30" s="11" t="s">
         <v>111</v>
       </c>
@@ -3855,10 +3865,10 @@
         <v>105</v>
       </c>
       <c r="B31" s="61"/>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="65"/>
+      <c r="D31" s="67"/>
       <c r="E31" s="11" t="s">
         <v>111</v>
       </c>
@@ -3882,10 +3892,10 @@
         <v>55</v>
       </c>
       <c r="B32" s="58"/>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="67"/>
+      <c r="D32" s="65"/>
       <c r="E32" s="11" t="s">
         <v>111</v>
       </c>
@@ -3911,8 +3921,8 @@
         <v>15</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="16"/>
       <c r="F33" s="18"/>
       <c r="G33" s="30"/>
@@ -4055,10 +4065,10 @@
         <v>40</v>
       </c>
       <c r="B34" s="58"/>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="67"/>
       <c r="E34" s="11" t="s">
         <v>111</v>
       </c>
@@ -4082,10 +4092,10 @@
         <v>59</v>
       </c>
       <c r="B35" s="58"/>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="D35" s="67"/>
+      <c r="D35" s="65"/>
       <c r="E35" s="11" t="s">
         <v>111</v>
       </c>
@@ -4111,10 +4121,10 @@
         <v>62</v>
       </c>
       <c r="B36" s="59"/>
-      <c r="C36" s="64" t="s">
+      <c r="C36" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="D36" s="65"/>
+      <c r="D36" s="67"/>
       <c r="E36" s="11" t="s">
         <v>111</v>
       </c>
@@ -4138,10 +4148,10 @@
         <v>63</v>
       </c>
       <c r="B37" s="59"/>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="65"/>
+      <c r="D37" s="67"/>
       <c r="E37" s="11" t="s">
         <v>111</v>
       </c>
@@ -4167,10 +4177,10 @@
         <v>177</v>
       </c>
       <c r="B38" s="59"/>
-      <c r="C38" s="64" t="s">
+      <c r="C38" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="65"/>
+      <c r="D38" s="67"/>
       <c r="E38" s="11" t="s">
         <v>111</v>
       </c>
@@ -4192,10 +4202,10 @@
         <v>179</v>
       </c>
       <c r="B39" s="59"/>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="65"/>
+      <c r="D39" s="67"/>
       <c r="E39" s="11" t="s">
         <v>111</v>
       </c>
@@ -4215,10 +4225,10 @@
         <v>68</v>
       </c>
       <c r="B40" s="59"/>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="67"/>
+      <c r="D40" s="65"/>
       <c r="E40" s="11" t="s">
         <v>111</v>
       </c>
@@ -4244,10 +4254,10 @@
         <v>69</v>
       </c>
       <c r="B41" s="59"/>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="65"/>
+      <c r="D41" s="67"/>
       <c r="E41" s="11" t="s">
         <v>111</v>
       </c>
@@ -4271,8 +4281,8 @@
         <v>71</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
       <c r="E42" s="16"/>
       <c r="F42" s="18"/>
       <c r="G42" s="30"/>
@@ -4415,10 +4425,10 @@
         <v>72</v>
       </c>
       <c r="B43" s="59"/>
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="65"/>
+      <c r="D43" s="67"/>
       <c r="E43" s="13" t="s">
         <v>111</v>
       </c>
@@ -4444,10 +4454,10 @@
         <v>74</v>
       </c>
       <c r="B44" s="59"/>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="67"/>
+      <c r="D44" s="65"/>
       <c r="E44" s="13" t="s">
         <v>111</v>
       </c>
@@ -4471,10 +4481,10 @@
         <v>176</v>
       </c>
       <c r="B45" s="59"/>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="65"/>
+      <c r="D45" s="67"/>
       <c r="E45" s="13" t="s">
         <v>111</v>
       </c>
@@ -4498,10 +4508,10 @@
         <v>77</v>
       </c>
       <c r="B46" s="59"/>
-      <c r="C46" s="64" t="s">
+      <c r="C46" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="65"/>
+      <c r="D46" s="67"/>
       <c r="E46" s="13" t="s">
         <v>130</v>
       </c>
@@ -4527,10 +4537,10 @@
         <v>166</v>
       </c>
       <c r="B47" s="59"/>
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="65"/>
+      <c r="D47" s="67"/>
       <c r="E47" s="13" t="s">
         <v>130</v>
       </c>
@@ -4550,10 +4560,10 @@
         <v>80</v>
       </c>
       <c r="B48" s="59"/>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="13" t="s">
         <v>82</v>
       </c>
@@ -4575,10 +4585,10 @@
     <row r="49" spans="1:11" s="5" customFormat="1" ht="102" customHeight="1">
       <c r="A49" s="15"/>
       <c r="B49" s="59"/>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="65"/>
+      <c r="D49" s="67"/>
       <c r="E49" s="13" t="s">
         <v>4</v>
       </c>
@@ -4603,21 +4613,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
     <mergeCell ref="K3:K6"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C25:D25"/>
@@ -4634,22 +4645,21 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
